--- a/ACCOUNT/Account__123455.xlsx
+++ b/ACCOUNT/Account__123455.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BALANCE : 1000.0</t>
+          <t>BALANCE : 1002.0</t>
         </is>
       </c>
     </row>
@@ -566,6 +566,24 @@
       </c>
       <c r="D13" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-20 20:35:24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
